--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_4.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_4.xlsx
@@ -483,35 +483,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1613636363636363</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(26.96, 30.84), (15.06, 20.56)]</t>
+          <t>[(2.36, 11.66), (60.04, 67.08)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.3, 2.82), (16.3, 19.52)]</t>
+          <t>[(63.1, 64.32), (61.48, 63.58)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -520,72 +520,76 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.0945054945054945</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'C']]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb', 'Bb']]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.620158, 15.8656)]</t>
+          <t>[(54.76, 62.82), (59.62, 64.34), (70.98, 80.44), (7.8, 13.6)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.46, 4.14)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[(14.48, 22.82), (57.6, 60.72), (59.5, 65.04), (60.72, 68.12)]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4875</v>
+        <v>0.1418067226890756</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['C', 'G', 'D/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(143.58, 148.16)]</t>
+          <t>[(23.861, 34.866)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(60.04, 67.08)]</t>
+          <t>[(9.336, 13.342)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -594,310 +598,314 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3375</v>
+        <v>0.09064112011790715</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'C:7']]</t>
+          <t>[['B', 'E', 'A'], ['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'A:7']]</t>
+          <t>[['D/5', 'G', 'C'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.024965, 17.839297)]</t>
+          <t>[(13.8465, 18.745911), (13.393711, 17.886772)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(26.126167, 33.440453)]</t>
+          <t>[(38.435396, 43.311587), (17.014988, 20.892721)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.09980620155038759</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(35.46, 50.44)]</t>
+          <t>[(14.22, 42.42)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[(23.5, 31.24)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1202898550724638</v>
+        <v>0.2125874125874126</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64), (21.72, 24.96)]</t>
+          <t>[(0.66, 3.28)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(23.98, 29.42), (235.32, 239.98)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[(48.42, 58.56)]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1064102564102564</v>
+        <v>0.1018027571580064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C', 'C/b7', 'F']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>[['A', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
+          <t>[(35.532, 40.124)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(69.86, 73.74)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(7.448, 10.553)]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2517482517482518</v>
+        <v>0.323076923076923</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#'], ['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.8, 2.88), (14.0, 16.38)]</t>
+          <t>[(128.54, 132.84)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(109.52, 114.2), (1.26, 5.44)]</t>
+          <t>[(18.32, 25.82)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.1517241379310345</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
+          <t>[['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(37.04, 43.18), (1.6, 11.26)]</t>
+          <t>[(15.78, 21.28)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.44, 43.32), (253.84, 257.6)]</t>
+          <t>[(14.84, 22.2)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1702898550724637</v>
+        <v>0.1214285714285714</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj', 'C:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
+          <t>[['Bb', 'F:7', 'Bb'], ['Bb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.34, 43.3), (39.26, 42.74)]</t>
+          <t>[(79.04, 86.54), (2.5, 26.2)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.96, 11.42), (8.34, 10.8)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[(12.51, 13.91), (0.46, 3.22)]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.07334491410924532</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['G:7', 'C:min', 'F:min']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C', 'C']]</t>
+          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(27.25, 30.81)]</t>
+          <t>[(156.152, 159.022)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(46.61, 51.08)]</t>
+          <t>[(8.620975, 14.367913)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -906,207 +914,191 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.07037643207855973</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['Eb', 'Ab/5', 'Eb'], ['Bb', 'C', 'F']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A', 'D', 'A'], ['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.16, 19.2), (49.08, 68.32)]</t>
+          <t>[(17.016, 22.841), (40.03, 43.842)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.26, 24.94), (65.06, 88.5)]</t>
+          <t>[(3.988594, 7.754783), (52.750498, 59.809365)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.08097928436911488</v>
+        <v>0.07463144963144963</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['C', 'D', 'G'], ['D/5', 'G', 'C']]</t>
+          <t>[['B', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A'], ['G', 'A', 'D'], ['A', 'D', 'G']]</t>
+          <t>[['Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.236303, 12.162018), (17.014988, 20.892721), (38.435396, 43.311587)]</t>
+          <t>[(9.480113, 15.412811)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.734, 8.399), (44.836, 49.319), (45.336, 50.158)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>[(16.13, 24.98)]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0945054945054945</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D', 'G', 'G'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['G', 'C/5', 'C'], ['C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(53.32, 61.84), (58.46, 63.46), (70.06, 80.28), (6.44, 12.42)]</t>
+          <t>[(19.139614, 27.777437), (17.839297, 22.785147)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(19.48, 31.26), (77.3, 80.48), (79.98, 87.7), (80.48, 93.6)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(20.870746, 26.837029), (12.094553, 16.853782)]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1769041769041769</v>
+        <v>0.1191151446398185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['F', 'F:7', 'Bb', 'Bb:min', 'F']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['F', 'F:7', 'Bb', 'Bb:min', 'F']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[(17.737518, 26.514661)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[(29.47, 34.95)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>isophonics_99</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2687747035573123</v>
+        <v>0.1164473684210526</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['G#', 'C#:min', 'F#:min'], ['F#:min', 'B', 'E']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['G', 'C:min', 'F:min'], ['D:min', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[(2.804376, 6.298979), (16.376439, 18.860975)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[(38.783, 45.674), (90.971, 96.81)]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_4.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1833333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>[['Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(2.36, 11.66), (60.04, 67.08)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32), (61.48, 63.58)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:02:12.380000', '0:02:14')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_227</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min/b3'], ['E', 'A:min', 'A:min/b3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(54.76, 62.82), (59.62, 64.34), (70.98, 80.44), (7.8, 13.6)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min'], ['F', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(14.48, 22.82), (57.6, 60.72), (59.5, 65.04), (60.72, 68.12)]</t>
+          <t>[('0:00:05.672040', '0:00:08.841564'), ('0:00:53.795396', '0:00:59.623605')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:25.420000', '0:00:31.240000'), ('0:00:14.520000', '0:00:20.940000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1418067226890756</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(23.861, 34.866)]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.336, 13.342)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:36.900000', '0:01:42.460000'), ('0:00:42.940000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:26.260000', '0:01:32.700000'), ('0:01:58.180000', '0:02:03.040000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09064112011790715</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A'], ['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D/5', 'G', 'C'], ['C', 'D', 'G']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.8465, 18.745911), (13.393711, 17.886772)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(38.435396, 43.311587), (17.014988, 20.892721)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:16.260000', '0:00:21.140000'), ('0:00:36.600000', '0:00:39')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:12.420000', '0:00:27.080000'), ('0:01:13.620000', '0:01:21.040000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09980620155038759</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_85</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1483870967741935</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.22, 42.42)]</t>
+          <t>[['Eb:7', 'Ab', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(23.5, 31.24)]</t>
+          <t>[('0:01:01.760000', '0:01:07.700000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:21.500000', '0:00:24.400000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.66, 3.28)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(48.42, 58.56)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1018027571580064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'C/b7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D/5']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(35.532, 40.124)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.448, 10.553)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.59375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(128.54, 132.84)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.84, 22.2)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1214285714285714</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['Bb', 'F', 'Bb']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(79.04, 86.54), (2.5, 26.2)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.51, 13.91), (0.46, 3.22)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1079545454545455</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(156.152, 159.022)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.620975, 14.367913)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07037643207855973</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab/5', 'Eb'], ['Bb', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A'], ['D', 'E', 'A']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(17.016, 22.841), (40.03, 43.842)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783), (52.750498, 59.809365)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:02:01.740000', '0:02:05')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07463144963144963</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B', 'B', 'B/7']]</t>
-        </is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5405405405405406</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.480113, 15.412811)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(16.13, 24.98)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:02:24.085784', '0:02:29.240614')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G'], ['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'C'], ['C/5', 'G', 'C/5']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(19.139614, 27.777437), (17.839297, 22.785147)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.870746, 26.837029), (12.094553, 16.853782)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1191151446398185</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F', 'F:7', 'Bb', 'Bb:min', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(17.737518, 26.514661)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(29.47, 34.95)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_99</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_241</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1164473684210526</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G#', 'C#:min', 'F#:min'], ['F#:min', 'B', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'C:min', 'F:min'], ['D:min', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.804376, 6.298979), (16.376439, 18.860975)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(38.783, 45.674), (90.971, 96.81)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
